--- a/data/trans_bre/P54_A_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,65%</t>
         </is>
       </c>
     </row>
@@ -642,27 +642,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,84; 9,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 4,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 1,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,41; 81,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,77; 418,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>342,27%</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,24; 13,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; 1,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 8,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,26; 141,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,27 +764,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-21,87</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-24,57; 22,58</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-61,74; 5,27</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,36; 229,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,68%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 8,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,11; 0,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 3,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,56; 64,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,5; 45,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,84; 784,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,04%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>23,87%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-37,65%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.006702781894873944</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6214686758106589</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.6170373584745728</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.0003702980444039712</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2493568836032757</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.3753192339774651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,84; 9,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 4,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,65; 1,65</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-51,41; 81,81</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-71,77; 418,14</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.83789723873905</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.633042362019248</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.492852974177678</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5141370100007743</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7171370589820891</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.604497251598152</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.668511317905493</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.539046647316414</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.8180500679877803</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.439655044073719</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>30,83%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-46,51%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>342,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 13,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,79; 1,54</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 8,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,26; 141,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.238486267250208</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.389610311010894</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.150915660332683</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3083025414971601</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.4198069379518377</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>4.076147207824934</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-21,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-89,16%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.239331118253322</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.163136437232351</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1816564505024489</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.242607623554869</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-24,57; 22,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-61,74; 5,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-59,36; 229,24</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.36963605922912</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.217561598360998</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.799380941466103</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.4170143464857</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.247246136542607</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +767,147 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,28%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-51,82%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>80,68%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.4424423753353279</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-24.51313511879525</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.01691551029961371</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.9146296308484531</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 8,73</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; 0,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 3,34</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-23,56; 64,46</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-91,5; 45,03</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-64,84; 784,52</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.57311255766013</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-69.4852886540055</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>-0.5935812976476414</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.57563230981573</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.298483664831684</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>2.292432122489599</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.920330432505138</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.602737983308077</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.982924879832772</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1127901221105567</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.5041293039186517</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.8954964179893322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.211188182148108</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.0018631139603</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.8662875360118384</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2356350178799319</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8955503773221517</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6163537474486853</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.725248564269963</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8305113123887017</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.030716172176831</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6446094336886673</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4445010713808417</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>7.81657600425674</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -921,12 +916,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
